--- a/Scanning/command comparison 1.xlsx
+++ b/Scanning/command comparison 1.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Full_output" localSheetId="0">Sheet1!$A$4:$B$53</definedName>
+    <definedName name="Full_output" localSheetId="0">Sheet1!$A$4:$B$42</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
   <si>
     <t xml:space="preserve">[10/02/2014 15:57:47] </t>
   </si>
@@ -58,18 +58,12 @@
     <t xml:space="preserve">[10/02/2014 15:58:52] Written data	</t>
   </si>
   <si>
-    <t xml:space="preserve">    ff ff ff ff ff ff ff ff ff                               	</t>
-  </si>
-  <si>
     <t xml:space="preserve">[10/02/2014 15:58:52] Read data	</t>
   </si>
   <si>
     <t xml:space="preserve">[10/02/2014 15:59:05] Written data	</t>
   </si>
   <si>
-    <t xml:space="preserve">    15 00 03                                          ...             	</t>
-  </si>
-  <si>
     <t xml:space="preserve">[10/02/2014 15:59:08] Written data	</t>
   </si>
   <si>
@@ -79,18 +73,12 @@
     <t xml:space="preserve">[10/02/2014 15:59:48] Written data	</t>
   </si>
   <si>
-    <t xml:space="preserve">    0e 00 61                                          ..a             	</t>
-  </si>
-  <si>
     <t xml:space="preserve">[10/02/2014 16:00:09] Written data	</t>
   </si>
   <si>
     <t xml:space="preserve">[10/02/2014 16:00:09] Read data	</t>
   </si>
   <si>
-    <t xml:space="preserve">    00 00 00 0e 00 11                                 ......          	</t>
-  </si>
-  <si>
     <t xml:space="preserve">[10/02/2014 16:00:25] Written data	</t>
   </si>
   <si>
@@ -256,9 +244,6 @@
     <t>?status</t>
   </si>
   <si>
-    <t>returned error code. Something about invalid program ID</t>
-  </si>
-  <si>
     <t>?id</t>
   </si>
   <si>
@@ -278,6 +263,12 @@
   </si>
   <si>
     <t>Start CLI.exe</t>
+  </si>
+  <si>
+    <t>a7 f0 e2 7a</t>
+  </si>
+  <si>
+    <t>returned error code. Decimal 17 - Program ID is marked as inactive</t>
   </si>
 </sst>
 </file>
@@ -333,7 +324,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:E53"/>
+  <dimension ref="A3:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -647,10 +638,10 @@
   <sheetData>
     <row r="3" spans="1:4">
       <c r="C3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -663,7 +654,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -671,271 +665,331 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>58</v>
       </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
+      <c r="A23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="C24" t="s">
-        <v>65</v>
+      <c r="D24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="s">
-        <v>69</v>
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" t="s">
-        <v>54</v>
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
         <v>73</v>
@@ -943,162 +997,61 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>81</v>
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D40" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41">
-        <v>29</v>
-      </c>
-      <c r="D41" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" t="s">
-        <v>32</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>34</v>
-      </c>
       <c r="B46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" t="s">
         <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="D47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
-        <v>36</v>
-      </c>
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50">
-        <v>25</v>
-      </c>
-      <c r="D50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" t="s">
-        <v>51</v>
-      </c>
-      <c r="D51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
